--- a/data/trans_orig/Q04C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Clase-trans_orig.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>18.07734608937061</v>
+        <v>18.07734608937062</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>18.83433888511365</v>
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>16.41925045551226</v>
+        <v>16.59978930976679</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.51297633582695</v>
+        <v>17.50150293676841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.32377864556067</v>
+        <v>17.22368156257633</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.43683040573248</v>
+        <v>19.61546408182708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.583282965842</v>
+        <v>20.63935901730864</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.55020248844687</v>
+        <v>19.50911364841748</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>17.27491432302293</v>
+        <v>17.50610885962565</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>14.84229641781913</v>
+        <v>14.71555066907204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.55382286202418</v>
+        <v>16.51749183083691</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.60341485145931</v>
+        <v>20.63284548527492</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.66273053198923</v>
+        <v>17.70975209478446</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.7451396896314</v>
+        <v>18.80569099000955</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.92845869236486</v>
+        <v>18.97702748049796</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>21.08223750753741</v>
+        <v>20.92092482624425</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19.96977951864848</v>
+        <v>20.00220518051914</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.57873292388103</v>
+        <v>22.57510997992613</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.22317916150624</v>
+        <v>26.72527253742918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.07034095602134</v>
+        <v>23.09328006345978</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>18.75160558426038</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19.42713265770103</v>
+        <v>19.42713265770104</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>18.72601227967719</v>
+        <v>18.73967820376067</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.6604021733756</v>
+        <v>17.6930952780677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.61128299899217</v>
+        <v>18.5894741132601</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>21.27570220513102</v>
+        <v>21.23787230648432</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.81194609821491</v>
+        <v>19.87374728541236</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.22417162230809</v>
+        <v>20.22781202189685</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>20.93624323565656</v>
+        <v>20.93624323565655</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>24.19403130435244</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18.90097601176703</v>
+        <v>19.15731097434133</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.879333727007</v>
+        <v>22.90413047309396</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21.76662527193261</v>
+        <v>21.7550666462803</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>22.76457890381616</v>
+        <v>23.15152624292901</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>25.54263810599045</v>
+        <v>25.63011253337787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.03390639846236</v>
+        <v>24.00613105576869</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>17.06347881829469</v>
+        <v>17.06347881829468</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>25.97165150677747</v>
+        <v>25.97165150677746</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24.23630733066929</v>
+        <v>24.2363073306693</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>14.66934452190027</v>
+        <v>14.87293169314653</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.44715721416311</v>
+        <v>24.62190880191826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>23.03365251999471</v>
+        <v>23.08485616354223</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>19.25280652301472</v>
+        <v>19.41162997190133</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>27.25808332982757</v>
+        <v>27.33957703103989</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>25.49839809341589</v>
+        <v>25.54160399063724</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         <v>21.66635416845192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20.64213620277543</v>
+        <v>20.64213620277544</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>18.92189204983494</v>
+        <v>18.92807847315109</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>20.99612762808231</v>
+        <v>21.10531954206655</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>20.21220362775029</v>
+        <v>20.17203637276473</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.2482861805865</v>
+        <v>20.23964892830585</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.28591382173695</v>
+        <v>22.32841203299551</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.08107798077585</v>
+        <v>21.06981164423512</v>
       </c>
     </row>
     <row r="25">
